--- a/biology/Botanique/Ochlandra/Ochlandra.xlsx
+++ b/biology/Botanique/Ochlandra/Ochlandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ochlandra est un genre de plantes monocotylédones de la famille des Poaceae, originaire de Madagascar et d'Inde.
 Ce genre compte une dizaine d'espèces, dont plusieurs sont endémiques des Ghats occidentaux (Inde).
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (13 juillet 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (13 juillet 2016) :
 Ochlandra beddomei Gamble
 Ochlandra ebracteata Raizada &amp; Chatterji
 Ochlandra keralensis M.Kumar, Remesh &amp; Sequiera
@@ -528,7 +542,7 @@
 Ochlandra talbotii Brandis
 Ochlandra travancorica (Bedd.) Gamble
 Ochlandra wightii (Munro) C.E.C.Fisch.
-Selon World Checklist of Selected Plant Families (WCSP)  (13 juillet 2016)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (13 juillet 2016) :
 Ochlandra beddomei Gamble (1896)
 Ochlandra ebracteata Raizada &amp; Chatterji (1963)
 Ochlandra keralensis M.Kumar, Remesh &amp; Sequiera (2001)
